--- a/Goodman_Observing_Log.xlsx
+++ b/Goodman_Observing_Log.xlsx
@@ -5,30 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZY\Documents\github\233boy\Dr.-Yep-2024-summer-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76178A38-EE3A-47EF-A5D1-738BDB50D96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D4F86-1463-4AE7-B3B4-78D0A2DD998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="1670" windowWidth="14400" windowHeight="8260" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26 December 2020" sheetId="1" r:id="rId1"/>
     <sheet name="27 December 2020" sheetId="2" r:id="rId2"/>
     <sheet name="28 December 2020" sheetId="3" r:id="rId3"/>
     <sheet name="summary" sheetId="4" r:id="rId4"/>
+    <sheet name="selection" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'26 December 2020'!$A$2:$D$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'27 December 2020'!$A$2:$D$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'28 December 2020'!$A$2:$D$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">selection!$B$6:$C$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="192">
   <si>
     <t>File</t>
   </si>
@@ -508,6 +510,102 @@
   </si>
   <si>
     <t>num</t>
+  </si>
+  <si>
+    <t>DAY1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>CG30_9_target_1</t>
+  </si>
+  <si>
+    <t>CG30_9_target_2</t>
+  </si>
+  <si>
+    <t>CG30_13_target_1</t>
+  </si>
+  <si>
+    <t>CG30_13_target_2</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>CG30_12_target_1</t>
+  </si>
+  <si>
+    <t>CG30_12_target_2</t>
+  </si>
+  <si>
+    <t>CG30_13_target_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> K </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> K</t>
+  </si>
+  <si>
+    <t>CG4_2_target_1</t>
+  </si>
+  <si>
+    <t>CG4_2_target_2</t>
+  </si>
+  <si>
+    <t>DAY2</t>
+  </si>
+  <si>
+    <t>DAY3</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>CG14_5_target_1</t>
+  </si>
+  <si>
+    <t>CG14_5_target_2</t>
+  </si>
+  <si>
+    <t>CG14_6_target_1</t>
+  </si>
+  <si>
+    <t>CG14_6_target_2</t>
+  </si>
+  <si>
+    <t>CG22_10_target_1</t>
+  </si>
+  <si>
+    <t>CG22_10_target_2</t>
+  </si>
+  <si>
+    <t>CG22_21</t>
+  </si>
+  <si>
+    <t>CG22_6_target_1</t>
+  </si>
+  <si>
+    <t>CG22_6_target_2</t>
+  </si>
+  <si>
+    <t>CG22_13_target_1</t>
+  </si>
+  <si>
+    <t>CG22_13_target_2</t>
+  </si>
+  <si>
+    <t>CG30_7_target_1</t>
+  </si>
+  <si>
+    <t>CG30_7_target_2</t>
   </si>
 </sst>
 </file>
@@ -574,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -600,6 +698,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14523,7 +14628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5F5BD-C694-40BC-80B9-AC5B1A3AA6FD}">
   <dimension ref="B3:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -15564,4 +15669,598 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F6C3FB-D1F0-4279-AAAF-F84A8D7E9669}">
+  <dimension ref="B5:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:C23" xr:uid="{F8F6C3FB-D1F0-4279-AAAF-F84A8D7E9669}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:C23">
+      <sortCondition ref="B6:B23"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Goodman_Observing_Log.xlsx
+++ b/Goodman_Observing_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZY\Documents\github\233boy\Dr.-Yep-2024-summer-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D4F86-1463-4AE7-B3B4-78D0A2DD998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6154B9-3C4B-4BC2-B3ED-AA2D014EE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="1670" windowWidth="14400" windowHeight="8260" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26 December 2020" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'26 December 2020'!$A$2:$D$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'27 December 2020'!$A$2:$D$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'28 December 2020'!$A$2:$D$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">selection!$B$6:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">selection!$H$6:$I$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="192">
   <si>
     <t>File</t>
   </si>
@@ -15673,10 +15673,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F6C3FB-D1F0-4279-AAAF-F84A8D7E9669}">
-  <dimension ref="B5:L34"/>
+  <dimension ref="B5:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16178,16 +16178,16 @@
       <c r="F26" t="s">
         <v>168</v>
       </c>
-      <c r="H26" t="s">
-        <v>180</v>
-      </c>
-      <c r="I26" t="s">
-        <v>168</v>
+      <c r="H26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s">
         <v>168</v>
@@ -16195,7 +16195,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I28" t="s">
         <v>168</v>
@@ -16203,7 +16203,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="I29" t="s">
         <v>168</v>
@@ -16211,7 +16211,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s">
         <v>168</v>
@@ -16219,7 +16219,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I31" t="s">
         <v>168</v>
@@ -16227,7 +16227,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="I32" t="s">
         <v>168</v>
@@ -16235,7 +16235,7 @@
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I33" t="s">
         <v>168</v>
@@ -16243,16 +16243,24 @@
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="I34" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B6:C23" xr:uid="{F8F6C3FB-D1F0-4279-AAAF-F84A8D7E9669}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:C23">
-      <sortCondition ref="B6:B23"/>
+  <autoFilter ref="H6:I35" xr:uid="{F8F6C3FB-D1F0-4279-AAAF-F84A8D7E9669}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H7:I35">
+      <sortCondition descending="1" ref="I6:I35"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">

--- a/Goodman_Observing_Log.xlsx
+++ b/Goodman_Observing_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZY\Documents\github\233boy\Dr.-Yep-2024-summer-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6154B9-3C4B-4BC2-B3ED-AA2D014EE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4156BD17-61A5-49E2-AF98-E92B82CAAC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26 December 2020" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">selection!$H$6:$I$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="190">
   <si>
     <t>File</t>
   </si>
@@ -546,12 +547,6 @@
   </si>
   <si>
     <t>CG30_13_target_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> K </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> K</t>
   </si>
   <si>
     <t>CG4_2_target_1</t>
@@ -7199,7 +7194,7 @@
   <dimension ref="A1:G1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D7 A10:D10 A12:D12 A16:D16 A18:D18 A21:D21 A23:D23 A25:D25 A27:D27 A29:D29 A31:D31 A34:D34 A37:D37 A39:D39 A41:D41 A43:D43 A45:D45 A47:D47 A49:D49 A51:D51 A54:D54"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14628,8 +14623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5F5BD-C694-40BC-80B9-AC5B1A3AA6FD}">
   <dimension ref="B3:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15675,8 +15670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F6C3FB-D1F0-4279-AAAF-F84A8D7E9669}">
   <dimension ref="B5:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15693,15 +15688,15 @@
       </c>
       <c r="C5" s="12"/>
       <c r="E5" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I5" s="11"/>
       <c r="K5" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" s="11"/>
     </row>
@@ -15751,7 +15746,7 @@
         <v>163</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L7" t="s">
         <v>168</v>
@@ -15777,7 +15772,7 @@
         <v>163</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L8" t="s">
         <v>168</v>
@@ -15803,7 +15798,7 @@
         <v>163</v>
       </c>
       <c r="K9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L9" t="s">
         <v>168</v>
@@ -15829,7 +15824,7 @@
         <v>163</v>
       </c>
       <c r="K10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L10" t="s">
         <v>163</v>
@@ -15849,7 +15844,7 @@
         <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I11" t="s">
         <v>163</v>
@@ -15895,7 +15890,7 @@
         <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
         <v>163</v>
@@ -15927,7 +15922,7 @@
         <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
         <v>163</v>
@@ -15953,13 +15948,13 @@
         <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I15" t="s">
         <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L15" t="s">
         <v>163</v>
@@ -15985,7 +15980,7 @@
         <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
         <v>163</v>
@@ -15996,7 +15991,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
         <v>89</v>
@@ -16022,7 +16017,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -16077,7 +16072,7 @@
         <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I20" t="s">
         <v>163</v>
@@ -16088,7 +16083,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
         <v>99</v>
@@ -16159,7 +16154,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
         <v>168</v>
@@ -16182,12 +16177,12 @@
         <v>106</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
         <v>168</v>
@@ -16195,7 +16190,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
         <v>168</v>
@@ -16203,7 +16198,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
         <v>168</v>
@@ -16235,7 +16230,7 @@
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I33" t="s">
         <v>168</v>
@@ -16243,7 +16238,7 @@
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I34" t="s">
         <v>168</v>

--- a/Goodman_Observing_Log.xlsx
+++ b/Goodman_Observing_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZY\Documents\github\233boy\Dr.-Yep-2024-summer-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4156BD17-61A5-49E2-AF98-E92B82CAAC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9CF37-8793-4483-B7D5-A295BA8AD21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26 December 2020" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'28 December 2020'!$A$2:$D$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">selection!$H$6:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -14623,7 +14633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF5F5BD-C694-40BC-80B9-AC5B1A3AA6FD}">
   <dimension ref="B3:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
@@ -15670,8 +15680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F6C3FB-D1F0-4279-AAAF-F84A8D7E9669}">
   <dimension ref="B5:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
